--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H2">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I2">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J2">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.641064008905373</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N2">
-        <v>0.641064008905373</v>
+        <v>0.01093</v>
       </c>
       <c r="O2">
-        <v>0.6166828357254592</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="P2">
-        <v>0.6166828357254592</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="Q2">
-        <v>1.812557304983048</v>
+        <v>0.02869520908888889</v>
       </c>
       <c r="R2">
-        <v>1.812557304983048</v>
+        <v>0.2582568818</v>
       </c>
       <c r="S2">
-        <v>0.00119406904401246</v>
+        <v>1.234254648128675E-05</v>
       </c>
       <c r="T2">
-        <v>0.00119406904401246</v>
+        <v>1.234254648128675E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.82742016367136</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H3">
-        <v>2.82742016367136</v>
+        <v>23.62826</v>
       </c>
       <c r="I3">
-        <v>0.001936277410101369</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J3">
-        <v>0.001936277410101369</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.398471992045962</v>
+        <v>0.2626486666666667</v>
       </c>
       <c r="N3">
-        <v>0.398471992045962</v>
+        <v>0.787946</v>
       </c>
       <c r="O3">
-        <v>0.3833171642745407</v>
+        <v>0.1730426339947983</v>
       </c>
       <c r="P3">
-        <v>0.3833171642745407</v>
+        <v>0.1730426339947983</v>
       </c>
       <c r="Q3">
-        <v>1.126647744969047</v>
+        <v>2.068643661551111</v>
       </c>
       <c r="R3">
-        <v>1.126647744969047</v>
+        <v>18.61779295396</v>
       </c>
       <c r="S3">
-        <v>0.0007422083660889087</v>
+        <v>0.0008897767730781306</v>
       </c>
       <c r="T3">
-        <v>0.0007422083660889087</v>
+        <v>0.0008897767730781308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1319.34805423078</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H4">
-        <v>1319.34805423078</v>
+        <v>23.62826</v>
       </c>
       <c r="I4">
-        <v>0.9035175833757644</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J4">
-        <v>0.9035175833757644</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.641064008905373</v>
+        <v>0.7039083333333332</v>
       </c>
       <c r="N4">
-        <v>0.641064008905373</v>
+        <v>2.111725</v>
       </c>
       <c r="O4">
-        <v>0.6166828357254592</v>
+        <v>0.4637607859836402</v>
       </c>
       <c r="P4">
-        <v>0.6166828357254592</v>
+        <v>0.4637607859836402</v>
       </c>
       <c r="Q4">
-        <v>845.7865527866873</v>
+        <v>5.544043038722221</v>
       </c>
       <c r="R4">
-        <v>845.7865527866873</v>
+        <v>49.8963873485</v>
       </c>
       <c r="S4">
-        <v>0.5571837854439804</v>
+        <v>0.002384635312735155</v>
       </c>
       <c r="T4">
-        <v>0.5571837854439804</v>
+        <v>0.002384635312735156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1319.34805423078</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H5">
-        <v>1319.34805423078</v>
+        <v>23.62826</v>
       </c>
       <c r="I5">
-        <v>0.9035175833757644</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J5">
-        <v>0.9035175833757644</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.398471992045962</v>
+        <v>0.03064833333333333</v>
       </c>
       <c r="N5">
-        <v>0.398471992045962</v>
+        <v>0.091945</v>
       </c>
       <c r="O5">
-        <v>0.3833171642745407</v>
+        <v>0.02019225300039816</v>
       </c>
       <c r="P5">
-        <v>0.3833171642745407</v>
+        <v>0.02019225300039816</v>
       </c>
       <c r="Q5">
-        <v>525.7232473713028</v>
+        <v>0.2413889295222222</v>
       </c>
       <c r="R5">
-        <v>525.7232473713028</v>
+        <v>2.1725003657</v>
       </c>
       <c r="S5">
-        <v>0.3463337979317839</v>
+        <v>0.0001038275787943193</v>
       </c>
       <c r="T5">
-        <v>0.3463337979317839</v>
+        <v>0.0001038275787943193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.346879340978129</v>
+        <v>7.876086666666667</v>
       </c>
       <c r="H6">
-        <v>0.346879340978129</v>
+        <v>23.62826</v>
       </c>
       <c r="I6">
-        <v>0.0002375503438069383</v>
+        <v>0.005141951162768809</v>
       </c>
       <c r="J6">
-        <v>0.0002375503438069383</v>
+        <v>0.00514195116276881</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.641064008905373</v>
+        <v>0.5169776666666667</v>
       </c>
       <c r="N6">
-        <v>0.641064008905373</v>
+        <v>1.550933</v>
       </c>
       <c r="O6">
-        <v>0.6166828357254592</v>
+        <v>0.3406039645730221</v>
       </c>
       <c r="P6">
-        <v>0.6166828357254592</v>
+        <v>0.3406039645730222</v>
       </c>
       <c r="Q6">
-        <v>0.2223718609338932</v>
+        <v>4.071760907397778</v>
       </c>
       <c r="R6">
-        <v>0.2223718609338932</v>
+        <v>36.64584816658</v>
       </c>
       <c r="S6">
-        <v>0.0001464932196464205</v>
+        <v>0.001751368951679917</v>
       </c>
       <c r="T6">
-        <v>0.0001464932196464205</v>
+        <v>0.001751368951679918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.346879340978129</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H7">
-        <v>0.346879340978129</v>
+        <v>4052.669921</v>
       </c>
       <c r="I7">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J7">
-        <v>0.0002375503438069383</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.398471992045962</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N7">
-        <v>0.398471992045962</v>
+        <v>0.01093</v>
       </c>
       <c r="O7">
-        <v>0.3833171642745407</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="P7">
-        <v>0.3833171642745407</v>
+        <v>0.002400362448141301</v>
       </c>
       <c r="Q7">
-        <v>0.1382217019991456</v>
+        <v>4.921742470725556</v>
       </c>
       <c r="R7">
-        <v>0.1382217019991456</v>
+        <v>44.29568223653001</v>
       </c>
       <c r="S7">
-        <v>9.10571241605178E-05</v>
+        <v>0.002116967854309001</v>
       </c>
       <c r="T7">
-        <v>9.10571241605178E-05</v>
+        <v>0.002116967854309001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.80731073482064</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H8">
-        <v>1.80731073482064</v>
+        <v>4052.669921</v>
       </c>
       <c r="I8">
-        <v>0.001237684796136887</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J8">
-        <v>0.001237684796136887</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.641064008905373</v>
+        <v>0.2626486666666667</v>
       </c>
       <c r="N8">
-        <v>0.641064008905373</v>
+        <v>0.787946</v>
       </c>
       <c r="O8">
-        <v>0.6166828357254592</v>
+        <v>0.1730426339947983</v>
       </c>
       <c r="P8">
-        <v>0.6166828357254592</v>
+        <v>0.1730426339947983</v>
       </c>
       <c r="Q8">
-        <v>1.158601865001835</v>
+        <v>354.8094503969185</v>
       </c>
       <c r="R8">
-        <v>1.158601865001835</v>
+        <v>3193.285053572266</v>
       </c>
       <c r="S8">
-        <v>0.0007632589698159825</v>
+        <v>0.1526126580907008</v>
       </c>
       <c r="T8">
-        <v>0.0007632589698159825</v>
+        <v>0.1526126580907008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.80731073482064</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H9">
-        <v>1.80731073482064</v>
+        <v>4052.669921</v>
       </c>
       <c r="I9">
-        <v>0.001237684796136887</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J9">
-        <v>0.001237684796136887</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.398471992045962</v>
+        <v>0.7039083333333332</v>
       </c>
       <c r="N9">
-        <v>0.398471992045962</v>
+        <v>2.111725</v>
       </c>
       <c r="O9">
-        <v>0.3833171642745407</v>
+        <v>0.4637607859836402</v>
       </c>
       <c r="P9">
-        <v>0.3833171642745407</v>
+        <v>0.4637607859836402</v>
       </c>
       <c r="Q9">
-        <v>0.7201627087500319</v>
+        <v>950.9027098804138</v>
       </c>
       <c r="R9">
-        <v>0.7201627087500319</v>
+        <v>8558.124388923725</v>
       </c>
       <c r="S9">
-        <v>0.0004744258263209045</v>
+        <v>0.4090076799762739</v>
       </c>
       <c r="T9">
-        <v>0.0004744258263209045</v>
+        <v>0.409007679976274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>135.905397365924</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H10">
-        <v>135.905397365924</v>
+        <v>4052.669921</v>
       </c>
       <c r="I10">
-        <v>0.09307090407419034</v>
+        <v>0.8819367491556352</v>
       </c>
       <c r="J10">
-        <v>0.09307090407419034</v>
+        <v>0.8819367491556354</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.641064008905373</v>
+        <v>0.03064833333333333</v>
       </c>
       <c r="N10">
-        <v>0.641064008905373</v>
+        <v>0.091945</v>
       </c>
       <c r="O10">
-        <v>0.6166828357254592</v>
+        <v>0.02019225300039816</v>
       </c>
       <c r="P10">
-        <v>0.6166828357254592</v>
+        <v>0.02019225300039816</v>
       </c>
       <c r="Q10">
-        <v>87.12405886727694</v>
+        <v>41.40252620959389</v>
       </c>
       <c r="R10">
-        <v>87.12405886727694</v>
+        <v>372.622735886345</v>
       </c>
       <c r="S10">
-        <v>0.0573952290480039</v>
+        <v>0.01780828996929927</v>
       </c>
       <c r="T10">
-        <v>0.0573952290480039</v>
+        <v>0.01780828996929928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1350.889973666667</v>
+      </c>
+      <c r="H11">
+        <v>4052.669921</v>
+      </c>
+      <c r="I11">
+        <v>0.8819367491556352</v>
+      </c>
+      <c r="J11">
+        <v>0.8819367491556354</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.550933</v>
+      </c>
+      <c r="O11">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P11">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q11">
+        <v>698.3799465095882</v>
+      </c>
+      <c r="R11">
+        <v>6285.419518586294</v>
+      </c>
+      <c r="S11">
+        <v>0.3003911532650523</v>
+      </c>
+      <c r="T11">
+        <v>0.3003911532650523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.775464</v>
+      </c>
+      <c r="H12">
+        <v>2.326392</v>
+      </c>
+      <c r="I12">
+        <v>0.0005062663966562098</v>
+      </c>
+      <c r="J12">
+        <v>0.0005062663966562099</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.003643333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.01093</v>
+      </c>
+      <c r="O12">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="P12">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="Q12">
+        <v>0.00282527384</v>
+      </c>
+      <c r="R12">
+        <v>0.02542746456000001</v>
+      </c>
+      <c r="S12">
+        <v>1.215222847289375E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.215222847289375E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.775464</v>
+      </c>
+      <c r="H13">
+        <v>2.326392</v>
+      </c>
+      <c r="I13">
+        <v>0.0005062663966562098</v>
+      </c>
+      <c r="J13">
+        <v>0.0005062663966562099</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2626486666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.787946</v>
+      </c>
+      <c r="O13">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="P13">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="Q13">
+        <v>0.203674585648</v>
+      </c>
+      <c r="R13">
+        <v>1.833071270832</v>
+      </c>
+      <c r="S13">
+        <v>8.76056707804459E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.760567078044592E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.775464</v>
+      </c>
+      <c r="H14">
+        <v>2.326392</v>
+      </c>
+      <c r="I14">
+        <v>0.0005062663966562098</v>
+      </c>
+      <c r="J14">
+        <v>0.0005062663966562099</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7039083333333332</v>
+      </c>
+      <c r="N14">
+        <v>2.111725</v>
+      </c>
+      <c r="O14">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="P14">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="Q14">
+        <v>0.5458555718</v>
+      </c>
+      <c r="R14">
+        <v>4.9127001462</v>
+      </c>
+      <c r="S14">
+        <v>0.0002347865020303892</v>
+      </c>
+      <c r="T14">
+        <v>0.0002347865020303893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.775464</v>
+      </c>
+      <c r="H15">
+        <v>2.326392</v>
+      </c>
+      <c r="I15">
+        <v>0.0005062663966562098</v>
+      </c>
+      <c r="J15">
+        <v>0.0005062663966562099</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03064833333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.091945</v>
+      </c>
+      <c r="O15">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="P15">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="Q15">
+        <v>0.02376667916</v>
+      </c>
+      <c r="R15">
+        <v>0.21390011244</v>
+      </c>
+      <c r="S15">
+        <v>1.022265916688212E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.022265916688212E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.775464</v>
+      </c>
+      <c r="H16">
+        <v>2.326392</v>
+      </c>
+      <c r="I16">
+        <v>0.0005062663966562098</v>
+      </c>
+      <c r="J16">
+        <v>0.0005062663966562099</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.550933</v>
+      </c>
+      <c r="O16">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P16">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q16">
+        <v>0.400897569304</v>
+      </c>
+      <c r="R16">
+        <v>3.608078123736</v>
+      </c>
+      <c r="S16">
+        <v>0.0001724363418312032</v>
+      </c>
+      <c r="T16">
+        <v>0.0001724363418312033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.121057</v>
+      </c>
+      <c r="H17">
+        <v>6.363171</v>
+      </c>
+      <c r="I17">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J17">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.003643333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.01093</v>
+      </c>
+      <c r="O17">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="P17">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="Q17">
+        <v>0.00772771767</v>
+      </c>
+      <c r="R17">
+        <v>0.06954945903000001</v>
+      </c>
+      <c r="S17">
+        <v>3.323889860526161E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.323889860526162E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.121057</v>
+      </c>
+      <c r="H18">
+        <v>6.363171</v>
+      </c>
+      <c r="I18">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J18">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2626486666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.787946</v>
+      </c>
+      <c r="O18">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="P18">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="Q18">
+        <v>0.5570927929740001</v>
+      </c>
+      <c r="R18">
+        <v>5.013835136766001</v>
+      </c>
+      <c r="S18">
+        <v>0.0002396199194915047</v>
+      </c>
+      <c r="T18">
+        <v>0.0002396199194915048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.121057</v>
+      </c>
+      <c r="H19">
+        <v>6.363171</v>
+      </c>
+      <c r="I19">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J19">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7039083333333332</v>
+      </c>
+      <c r="N19">
+        <v>2.111725</v>
+      </c>
+      <c r="O19">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="P19">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="Q19">
+        <v>1.493029697775</v>
+      </c>
+      <c r="R19">
+        <v>13.437267279975</v>
+      </c>
+      <c r="S19">
+        <v>0.0006421904222982256</v>
+      </c>
+      <c r="T19">
+        <v>0.0006421904222982259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>135.905397365924</v>
-      </c>
-      <c r="H11">
-        <v>135.905397365924</v>
-      </c>
-      <c r="I11">
-        <v>0.09307090407419034</v>
-      </c>
-      <c r="J11">
-        <v>0.09307090407419034</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.398471992045962</v>
-      </c>
-      <c r="N11">
-        <v>0.398471992045962</v>
-      </c>
-      <c r="O11">
-        <v>0.3833171642745407</v>
-      </c>
-      <c r="P11">
-        <v>0.3833171642745407</v>
-      </c>
-      <c r="Q11">
-        <v>54.15449441819777</v>
-      </c>
-      <c r="R11">
-        <v>54.15449441819777</v>
-      </c>
-      <c r="S11">
-        <v>0.03567567502618644</v>
-      </c>
-      <c r="T11">
-        <v>0.03567567502618644</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.121057</v>
+      </c>
+      <c r="H20">
+        <v>6.363171</v>
+      </c>
+      <c r="I20">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J20">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03064833333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.091945</v>
+      </c>
+      <c r="O20">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="P20">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="Q20">
+        <v>0.06500686195499999</v>
+      </c>
+      <c r="R20">
+        <v>0.585061757595</v>
+      </c>
+      <c r="S20">
+        <v>2.796112106368507E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.796112106368508E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.121057</v>
+      </c>
+      <c r="H21">
+        <v>6.363171</v>
+      </c>
+      <c r="I21">
+        <v>0.001384744984283513</v>
+      </c>
+      <c r="J21">
+        <v>0.001384744984283514</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.550933</v>
+      </c>
+      <c r="O21">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P21">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q21">
+        <v>1.096539098727</v>
+      </c>
+      <c r="R21">
+        <v>9.868851888543002</v>
+      </c>
+      <c r="S21">
+        <v>0.0004716496315695719</v>
+      </c>
+      <c r="T21">
+        <v>0.000471649631569572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.042591</v>
+      </c>
+      <c r="I22">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J22">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.003643333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.01093</v>
+      </c>
+      <c r="O22">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="P22">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="Q22">
+        <v>0.001266168847777778</v>
+      </c>
+      <c r="R22">
+        <v>0.01139551963</v>
+      </c>
+      <c r="S22">
+        <v>5.446117436692855E-07</v>
+      </c>
+      <c r="T22">
+        <v>5.446117436692856E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.042591</v>
+      </c>
+      <c r="I23">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J23">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2626486666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.787946</v>
+      </c>
+      <c r="O23">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="P23">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="Q23">
+        <v>0.09127837867622224</v>
+      </c>
+      <c r="R23">
+        <v>0.821505408086</v>
+      </c>
+      <c r="S23">
+        <v>3.9261175203773E-05</v>
+      </c>
+      <c r="T23">
+        <v>3.9261175203773E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.042591</v>
+      </c>
+      <c r="I24">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J24">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7039083333333332</v>
+      </c>
+      <c r="N24">
+        <v>2.111725</v>
+      </c>
+      <c r="O24">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="P24">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="Q24">
+        <v>0.2446294977194444</v>
+      </c>
+      <c r="R24">
+        <v>2.201665479475</v>
+      </c>
+      <c r="S24">
+        <v>0.0001052214304117129</v>
+      </c>
+      <c r="T24">
+        <v>0.0001052214304117129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.042591</v>
+      </c>
+      <c r="I25">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J25">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03064833333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.091945</v>
+      </c>
+      <c r="O25">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="P25">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="Q25">
+        <v>0.01065122549944444</v>
+      </c>
+      <c r="R25">
+        <v>0.095861029495</v>
+      </c>
+      <c r="S25">
+        <v>4.581365669869392E-06</v>
+      </c>
+      <c r="T25">
+        <v>4.581365669869393E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3475303333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.042591</v>
+      </c>
+      <c r="I26">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="J26">
+        <v>0.0002268872953295036</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.550933</v>
+      </c>
+      <c r="O26">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P26">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q26">
+        <v>0.1796654208225555</v>
+      </c>
+      <c r="R26">
+        <v>1.616988787403</v>
+      </c>
+      <c r="S26">
+        <v>7.727871230047904E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.727871230047906E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H27">
+        <v>509.163056</v>
+      </c>
+      <c r="I27">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J27">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.003643333333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.01093</v>
+      </c>
+      <c r="O27">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="P27">
+        <v>0.002400362448141301</v>
+      </c>
+      <c r="Q27">
+        <v>0.6183502446755555</v>
+      </c>
+      <c r="R27">
+        <v>5.56515220208</v>
+      </c>
+      <c r="S27">
+        <v>0.0002659683228995282</v>
+      </c>
+      <c r="T27">
+        <v>0.0002659683228995282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H28">
+        <v>509.163056</v>
+      </c>
+      <c r="I28">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J28">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2626486666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.787946</v>
+      </c>
+      <c r="O28">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="P28">
+        <v>0.1730426339947983</v>
+      </c>
+      <c r="Q28">
+        <v>44.57699925810844</v>
+      </c>
+      <c r="R28">
+        <v>401.192993322976</v>
+      </c>
+      <c r="S28">
+        <v>0.01917371236554361</v>
+      </c>
+      <c r="T28">
+        <v>0.01917371236554361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H29">
+        <v>509.163056</v>
+      </c>
+      <c r="I29">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J29">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7039083333333332</v>
+      </c>
+      <c r="N29">
+        <v>2.111725</v>
+      </c>
+      <c r="O29">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="P29">
+        <v>0.4637607859836402</v>
+      </c>
+      <c r="Q29">
+        <v>119.4680393812889</v>
+      </c>
+      <c r="R29">
+        <v>1075.2123544316</v>
+      </c>
+      <c r="S29">
+        <v>0.05138627233989077</v>
+      </c>
+      <c r="T29">
+        <v>0.05138627233989078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H30">
+        <v>509.163056</v>
+      </c>
+      <c r="I30">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J30">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.03064833333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.091945</v>
+      </c>
+      <c r="O30">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="P30">
+        <v>0.02019225300039816</v>
+      </c>
+      <c r="Q30">
+        <v>5.201666353768888</v>
+      </c>
+      <c r="R30">
+        <v>46.81499718392</v>
+      </c>
+      <c r="S30">
+        <v>0.002237370306404128</v>
+      </c>
+      <c r="T30">
+        <v>0.002237370306404128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>169.7210186666667</v>
+      </c>
+      <c r="H31">
+        <v>509.163056</v>
+      </c>
+      <c r="I31">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="J31">
+        <v>0.1108034010053267</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.5169776666666667</v>
+      </c>
+      <c r="N31">
+        <v>1.550933</v>
+      </c>
+      <c r="O31">
+        <v>0.3406039645730221</v>
+      </c>
+      <c r="P31">
+        <v>0.3406039645730222</v>
+      </c>
+      <c r="Q31">
+        <v>87.7419762145831</v>
+      </c>
+      <c r="R31">
+        <v>789.6777859312481</v>
+      </c>
+      <c r="S31">
+        <v>0.03774007767058866</v>
+      </c>
+      <c r="T31">
+        <v>0.03774007767058866</v>
       </c>
     </row>
   </sheetData>
